--- a/medicine/Enfance/François_Barcelo/François_Barcelo.xlsx
+++ b/medicine/Enfance/François_Barcelo/François_Barcelo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Barcelo</t>
+          <t>François_Barcelo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Barcelo, né le 4 décembre 1941 à Montréal, est un publicitaire et écrivain québécois.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Barcelo</t>
+          <t>François_Barcelo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,18 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille et enfance
-François Barcelo descend de Gérard Barsalou colon français natif d'Agen (Lot-et-Garonne), qui est venu s'installer à Montréal, Nouvelle-France, en 1690[1]. Il a par ailleurs pour ancêtre Jacob Barsalou alias Jacob Barcelo, (1789-1873)[1], célèbre chef patriote de la Rébellion de 1837 qui a opposé les colons canadiens aux Britanniques[2]. À partir de lui, la lignée Barsalou devient « Barcelo ».
-La mère de François Barcelo est une écrivaine[3].
-Durant son adolescence, celui-ci remporte un prix littéraire à un concours de jeunes auteurs organisé par Radio-Canada. Il écrit aussi deux romans qui sont finalistes du Prix du Cercle du livre de France[3], mais qui ne sont pas publiés.
+          <t>Famille et enfance</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Barcelo descend de Gérard Barsalou colon français natif d'Agen (Lot-et-Garonne), qui est venu s'installer à Montréal, Nouvelle-France, en 1690. Il a par ailleurs pour ancêtre Jacob Barsalou alias Jacob Barcelo, (1789-1873), célèbre chef patriote de la Rébellion de 1837 qui a opposé les colons canadiens aux Britanniques. À partir de lui, la lignée Barsalou devient « Barcelo ».
+La mère de François Barcelo est une écrivaine.
+Durant son adolescence, celui-ci remporte un prix littéraire à un concours de jeunes auteurs organisé par Radio-Canada. Il écrit aussi deux romans qui sont finalistes du Prix du Cercle du livre de France, mais qui ne sont pas publiés.
 Plus tard, il obtient une maîtrise en littérature française à l'Université de Montréal.
 François Barcelo est l'auteur de plusieurs romans pour adultes, d'essais, de romans pour la jeunesse ainsi que de deux recueils de nouvelles. Il a remporté le prix du Gouverneur général avec La Fatigante et le Fainéant. Son roman Cadavres, qui lui a permis de devenir le premier Québécois à être publié dans la célèbre série noire de Gallimard, a été adapté au grand écran en 2008 par le cinéaste Érik Canuel.
-Publicitaire
-Avant de se consacrer entièrement à la littérature en 1988, François Barcelo exerce la profession de publicitaire[3]; entre autres, il est vice-président de la compagnie J. Walter Thompson.
-Écrivain
-François Barcelo publie son premier ouvrage, intitulé Agénor, Agénor, Agénor et Agénor, en 1981.
-Il est membre du conseil d'administration du Salon du livre de Montréal, évènement littéraire annuel.
-Certaines de ses œuvres sont traduites en italien, anglais ou coréen[4].
 </t>
         </is>
       </c>
@@ -535,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Barcelo</t>
+          <t>François_Barcelo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,14 +561,126 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Publicitaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avant de se consacrer entièrement à la littérature en 1988, François Barcelo exerce la profession de publicitaire; entre autres, il est vice-président de la compagnie J. Walter Thompson.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>François_Barcelo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Barcelo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Écrivain</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Barcelo publie son premier ouvrage, intitulé Agénor, Agénor, Agénor et Agénor, en 1981.
+Il est membre du conseil d'administration du Salon du livre de Montréal, évènement littéraire annuel.
+Certaines de ses œuvres sont traduites en italien, anglais ou coréen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>François_Barcelo</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Barcelo</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2001 : Écrire en toute liberté, Éditions Trois-Pistoles, Québec
-Romans
-1981 : Agénor, Agénor, Agénor et Agénor, Montréal, Les Quinze ; réédition, version définitive, Montréal, Bibliothèque québécoise, 2006
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2001 : Écrire en toute liberté, Éditions Trois-Pistoles, Québec</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>François_Barcelo</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Barcelo</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1981 : Agénor, Agénor, Agénor et Agénor, Montréal, Les Quinze ; réédition, version définitive, Montréal, Bibliothèque québécoise, 2006
 1981 : La Tribu, Montréal, Libre Expression ; réédition, Montréal, Bibliothèque québécoise, 1998
 1982 : Ville-Dieu, Montréal, Libre Expression ; réédition, Montréal, Bibliothèque québécoise, 1999
 1986 : Aaa, Aâh, Ha ou les amours malaisées, Montréal, L'Hexagone
@@ -587,13 +710,81 @@
 2011 : J'haïs le hockey, Montréal, Les 400 coups
 2012 : J'haïs les bébés, Montréal, Les 400 coups
 2013 : J'haïs les vieux, Montréal, Les 400 coups
-2014 : J'haïs les Anglais, Montréal, Les 400 coups
-Nouvelles
-1992 : Longues Histoires courtes, Montréal, Libre Expression
+2014 : J'haïs les Anglais, Montréal, Les 400 coups</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>François_Barcelo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Barcelo</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1992 : Longues Histoires courtes, Montréal, Libre Expression
 2004 : Rire noir, Montréal, XYZ Éditeur
-2006 : Dernier soir sur un pont, Rougier éditions, Soligny la trappe
-Jeunesse
----- : Momo de Sinro (série, dix titres), Montréal, Québec Amérique
+2006 : Dernier soir sur un pont, Rougier éditions, Soligny la trappe</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>François_Barcelo</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Barcelo</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>---- : Momo de Sinro (série, dix titres), Montréal, Québec Amérique
 ---- : Petit Héros (série, six titres), Montréal, Les 400 coups
 1999 : Pince-nez le crabe en conserve, Montréal, Éditions Pierre Tisseyre
 2004 : Le Nul et la Chipie, Saint-Lambert, Soulières éditeur
@@ -603,31 +794,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fran%C3%A7ois_Barcelo</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Barcelo</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>François_Barcelo</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Barcelo</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1991 - Deuxième prix du Concours de nouvelles de Radio-Canada pour Le Héros de Bougainville
 1997 - Nomination pour le Prix du Gouverneur général, La Face cachée des pierres
@@ -640,31 +833,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Fran%C3%A7ois_Barcelo</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Barcelo</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>François_Barcelo</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Barcelo</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Adaptations cinématographiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2008, son roman de Série noire, Cadavres, est adapté au cinéma par Érik Canuel.
 </t>
